--- a/final assignment/data/optimize_results/results_scenario_1_seed_4.xlsx
+++ b/final assignment/data/optimize_results/results_scenario_1_seed_4.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AN16"/>
+  <dimension ref="A1:AN18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,19 +635,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>1</v>
@@ -680,58 +680,58 @@
         <v>1</v>
       </c>
       <c r="Q2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T2" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="U2" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="V2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Y2" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="Z2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AA2" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC2" t="n">
         <v>5</v>
       </c>
-      <c r="AB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>9</v>
-      </c>
       <c r="AD2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE2" t="n">
         <v>6</v>
       </c>
       <c r="AF2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AG2" t="n">
         <v>0</v>
       </c>
       <c r="AH2" t="n">
-        <v>71223146.50296113</v>
+        <v>181770174.4638476</v>
       </c>
       <c r="AI2" t="n">
         <v>0</v>
@@ -740,16 +740,16 @@
         <v>0</v>
       </c>
       <c r="AK2" t="n">
-        <v>220682862.9318487</v>
+        <v>90143923.54885221</v>
       </c>
       <c r="AL2" t="n">
         <v>0</v>
       </c>
       <c r="AM2" t="n">
-        <v>1471100000</v>
+        <v>1172300000</v>
       </c>
       <c r="AN2" t="n">
-        <v>330.074454372484</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -766,7 +766,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -775,19 +775,19 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
@@ -796,82 +796,82 @@
         <v>1</v>
       </c>
       <c r="O3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>1</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T3" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V3" t="n">
+        <v>9</v>
+      </c>
+      <c r="W3" t="n">
+        <v>3</v>
+      </c>
+      <c r="X3" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA3" t="n">
         <v>6</v>
       </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA3" t="n">
+      <c r="AB3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF3" t="n">
         <v>9</v>
       </c>
-      <c r="AB3" t="n">
-        <v>7</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>8</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>10</v>
-      </c>
       <c r="AG3" t="n">
         <v>0</v>
       </c>
       <c r="AH3" t="n">
-        <v>88511693.9986257</v>
+        <v>76431543.68310125</v>
       </c>
       <c r="AI3" t="n">
         <v>0</v>
       </c>
       <c r="AJ3" t="n">
-        <v>13010212.63998592</v>
+        <v>0</v>
       </c>
       <c r="AK3" t="n">
-        <v>66045103.44010488</v>
+        <v>218980524.7255341</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.001264116327110869</v>
+        <v>0</v>
       </c>
       <c r="AM3" t="n">
-        <v>1087700000</v>
+        <v>1049400000</v>
       </c>
       <c r="AN3" t="n">
-        <v>708.5151766097053</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -885,10 +885,10 @@
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -897,7 +897,7 @@
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
@@ -909,13 +909,13 @@
         <v>1</v>
       </c>
       <c r="L4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -924,58 +924,58 @@
         <v>1</v>
       </c>
       <c r="Q4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>4</v>
+      </c>
+      <c r="W4" t="n">
+        <v>2</v>
+      </c>
+      <c r="X4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC4" t="n">
         <v>8</v>
       </c>
-      <c r="V4" t="n">
-        <v>5</v>
-      </c>
-      <c r="W4" t="n">
-        <v>10</v>
-      </c>
-      <c r="X4" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>6</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>3</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>5</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>0</v>
-      </c>
       <c r="AD4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE4" t="n">
         <v>4</v>
       </c>
       <c r="AF4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AG4" t="n">
         <v>0</v>
       </c>
       <c r="AH4" t="n">
-        <v>0</v>
+        <v>68139002.95605196</v>
       </c>
       <c r="AI4" t="n">
         <v>0</v>
@@ -984,16 +984,16 @@
         <v>0</v>
       </c>
       <c r="AK4" t="n">
-        <v>313049284.6435943</v>
+        <v>180467612.4060828</v>
       </c>
       <c r="AL4" t="n">
         <v>0</v>
       </c>
       <c r="AM4" t="n">
-        <v>1000800000</v>
+        <v>1420800000</v>
       </c>
       <c r="AN4" t="n">
-        <v>252.5752189231208</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1004,115 +1004,115 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S5" t="n">
+        <v>9</v>
+      </c>
+      <c r="T5" t="n">
+        <v>7</v>
+      </c>
+      <c r="U5" t="n">
+        <v>3</v>
+      </c>
+      <c r="V5" t="n">
+        <v>9</v>
+      </c>
+      <c r="W5" t="n">
         <v>4</v>
       </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>2</v>
-      </c>
-      <c r="V5" t="n">
+      <c r="X5" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA5" t="n">
         <v>4</v>
       </c>
-      <c r="W5" t="n">
-        <v>1</v>
-      </c>
-      <c r="X5" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>8</v>
-      </c>
       <c r="AB5" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AC5" t="n">
         <v>8</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AE5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AF5" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AG5" t="n">
         <v>0</v>
       </c>
       <c r="AH5" t="n">
-        <v>88429031.37443781</v>
+        <v>216222383.9964238</v>
       </c>
       <c r="AI5" t="n">
         <v>0</v>
       </c>
       <c r="AJ5" t="n">
-        <v>209031.7582495124</v>
+        <v>2067359.653042418</v>
       </c>
       <c r="AK5" t="n">
-        <v>146673407.0796544</v>
+        <v>227235615.9139581</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.0001731446296346991</v>
+        <v>0.001756434511784567</v>
       </c>
       <c r="AM5" t="n">
-        <v>1203000000</v>
+        <v>302400000</v>
       </c>
       <c r="AN5" t="n">
         <v>0</v>
@@ -1135,25 +1135,25 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>1</v>
       </c>
       <c r="K6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -1162,64 +1162,64 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
+        <v>3</v>
+      </c>
+      <c r="R6" t="n">
+        <v>6</v>
+      </c>
+      <c r="S6" t="n">
+        <v>7</v>
+      </c>
+      <c r="T6" t="n">
+        <v>3</v>
+      </c>
+      <c r="U6" t="n">
+        <v>3</v>
+      </c>
+      <c r="V6" t="n">
         <v>4</v>
       </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z6" t="n">
         <v>6</v>
       </c>
-      <c r="T6" t="n">
+      <c r="AA6" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB6" t="n">
         <v>4</v>
       </c>
-      <c r="U6" t="n">
-        <v>7</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>4</v>
-      </c>
-      <c r="X6" t="n">
-        <v>4</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>9</v>
-      </c>
-      <c r="AA6" t="n">
+      <c r="AC6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF6" t="n">
         <v>6</v>
       </c>
-      <c r="AB6" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>4</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>7</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>1</v>
-      </c>
       <c r="AG6" t="n">
         <v>0</v>
       </c>
       <c r="AH6" t="n">
-        <v>119252509.8856793</v>
+        <v>209532275.563747</v>
       </c>
       <c r="AI6" t="n">
         <v>0</v>
@@ -1228,16 +1228,16 @@
         <v>0</v>
       </c>
       <c r="AK6" t="n">
-        <v>140822678.0004261</v>
+        <v>106860238.4866137</v>
       </c>
       <c r="AL6" t="n">
         <v>0</v>
       </c>
       <c r="AM6" t="n">
-        <v>729100000</v>
+        <v>448400000</v>
       </c>
       <c r="AN6" t="n">
-        <v>0</v>
+        <v>2399.851451283755</v>
       </c>
     </row>
     <row r="7">
@@ -1245,7 +1245,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -1257,22 +1257,22 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1290,58 +1290,58 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R7" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S7" t="n">
+        <v>3</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1</v>
+      </c>
+      <c r="U7" t="n">
         <v>9</v>
       </c>
-      <c r="T7" t="n">
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>2</v>
+      </c>
+      <c r="X7" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z7" t="n">
         <v>6</v>
       </c>
-      <c r="U7" t="n">
-        <v>7</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0</v>
-      </c>
-      <c r="X7" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>9</v>
-      </c>
       <c r="AA7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AB7" t="n">
         <v>8</v>
       </c>
       <c r="AC7" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AD7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE7" t="n">
         <v>4</v>
       </c>
       <c r="AF7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG7" t="n">
         <v>0</v>
       </c>
       <c r="AH7" t="n">
-        <v>216313636.5835841</v>
+        <v>156694536.3998669</v>
       </c>
       <c r="AI7" t="n">
         <v>0</v>
@@ -1350,13 +1350,13 @@
         <v>0</v>
       </c>
       <c r="AK7" t="n">
-        <v>73315450.27094865</v>
+        <v>147929705.4732663</v>
       </c>
       <c r="AL7" t="n">
         <v>0</v>
       </c>
       <c r="AM7" t="n">
-        <v>667700000</v>
+        <v>941000000</v>
       </c>
       <c r="AN7" t="n">
         <v>0</v>
@@ -1373,7 +1373,7 @@
         <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -1412,49 +1412,49 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="S8" t="n">
         <v>2</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="U8" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="V8" t="n">
         <v>4</v>
       </c>
       <c r="W8" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="X8" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z8" t="n">
         <v>5</v>
       </c>
-      <c r="Y8" t="n">
+      <c r="AA8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="n">
         <v>7</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>8</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>2</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>9</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>2</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>3</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>8</v>
       </c>
       <c r="AF8" t="n">
         <v>9</v>
@@ -1463,25 +1463,25 @@
         <v>0</v>
       </c>
       <c r="AH8" t="n">
-        <v>125043551.4981561</v>
+        <v>155040808.5678577</v>
       </c>
       <c r="AI8" t="n">
         <v>0</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0</v>
+        <v>2021014.855135735</v>
       </c>
       <c r="AK8" t="n">
-        <v>236400221.7149769</v>
+        <v>209978401.231998</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>0.001682302701061557</v>
       </c>
       <c r="AM8" t="n">
-        <v>417700000</v>
+        <v>744700000</v>
       </c>
       <c r="AN8" t="n">
-        <v>47.00077256297169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1489,22 +1489,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
         <v>1</v>
@@ -1516,10 +1516,10 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
@@ -1531,79 +1531,79 @@
         <v>1</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9" t="n">
         <v>4</v>
       </c>
       <c r="R9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>6</v>
+      </c>
+      <c r="W9" t="n">
+        <v>1</v>
+      </c>
+      <c r="X9" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF9" t="n">
         <v>8</v>
       </c>
-      <c r="U9" t="n">
-        <v>1</v>
-      </c>
-      <c r="V9" t="n">
-        <v>2</v>
-      </c>
-      <c r="W9" t="n">
-        <v>2</v>
-      </c>
-      <c r="X9" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>4</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>2</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>2</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>10</v>
-      </c>
       <c r="AG9" t="n">
-        <v>8463044.286018342</v>
+        <v>0</v>
       </c>
       <c r="AH9" t="n">
-        <v>155614165.5849133</v>
+        <v>47847947.96145424</v>
       </c>
       <c r="AI9" t="n">
-        <v>0.0006286125147431929</v>
+        <v>0</v>
       </c>
       <c r="AJ9" t="n">
-        <v>5622527.458323036</v>
+        <v>12890128.51521855</v>
       </c>
       <c r="AK9" t="n">
-        <v>129886219.7633489</v>
+        <v>112832601.0182171</v>
       </c>
       <c r="AL9" t="n">
-        <v>0.0005485971894984649</v>
+        <v>0.001238306078389154</v>
       </c>
       <c r="AM9" t="n">
-        <v>559900000</v>
+        <v>1638600000</v>
       </c>
       <c r="AN9" t="n">
-        <v>453.5278407082926</v>
+        <v>704.3739061431488</v>
       </c>
     </row>
     <row r="10">
@@ -1611,7 +1611,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -1620,19 +1620,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
         <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1644,88 +1644,88 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10" t="n">
         <v>1</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
       </c>
       <c r="R10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="U10" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="V10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="X10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Y10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Z10" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF10" t="n">
         <v>10</v>
       </c>
-      <c r="AA10" t="n">
-        <v>4</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>5</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>6</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>7</v>
-      </c>
       <c r="AG10" t="n">
         <v>0</v>
       </c>
       <c r="AH10" t="n">
-        <v>95213987.28559849</v>
+        <v>118857792.0372204</v>
       </c>
       <c r="AI10" t="n">
         <v>0</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0</v>
+        <v>4595912.020985248</v>
       </c>
       <c r="AK10" t="n">
-        <v>151091418.5739353</v>
+        <v>141336773.5279557</v>
       </c>
       <c r="AL10" t="n">
-        <v>0</v>
+        <v>0.001351774980505982</v>
       </c>
       <c r="AM10" t="n">
-        <v>966500000</v>
+        <v>1203000000</v>
       </c>
       <c r="AN10" t="n">
-        <v>0</v>
+        <v>103.7304087990524</v>
       </c>
     </row>
     <row r="11">
@@ -1733,13 +1733,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1754,7 +1754,7 @@
         <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -1778,58 +1778,58 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
+        <v>2</v>
+      </c>
+      <c r="R11" t="n">
+        <v>9</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
         <v>4</v>
-      </c>
-      <c r="R11" t="n">
-        <v>4</v>
-      </c>
-      <c r="S11" t="n">
-        <v>5</v>
-      </c>
-      <c r="T11" t="n">
-        <v>3</v>
       </c>
       <c r="U11" t="n">
         <v>4</v>
       </c>
       <c r="V11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="X11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC11" t="n">
         <v>8</v>
       </c>
-      <c r="Z11" t="n">
-        <v>6</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB11" t="n">
+      <c r="AD11" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF11" t="n">
         <v>8</v>
       </c>
-      <c r="AC11" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>6</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>6</v>
-      </c>
       <c r="AG11" t="n">
         <v>0</v>
       </c>
       <c r="AH11" t="n">
-        <v>166809149.7262006</v>
+        <v>150007532.0702764</v>
       </c>
       <c r="AI11" t="n">
         <v>0</v>
@@ -1838,16 +1838,16 @@
         <v>0</v>
       </c>
       <c r="AK11" t="n">
-        <v>156295954.0347702</v>
+        <v>297296139.4295244</v>
       </c>
       <c r="AL11" t="n">
         <v>0</v>
       </c>
       <c r="AM11" t="n">
-        <v>315200000</v>
+        <v>151900000</v>
       </c>
       <c r="AN11" t="n">
-        <v>810.3859770231879</v>
+        <v>770.4978432506321</v>
       </c>
     </row>
     <row r="12">
@@ -1855,37 +1855,37 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" t="n">
         <v>1</v>
@@ -1900,19 +1900,19 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="U12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V12" t="n">
         <v>6</v>
@@ -1921,16 +1921,16 @@
         <v>10</v>
       </c>
       <c r="X12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y12" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="Z12" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AA12" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AB12" t="n">
         <v>7</v>
@@ -1939,37 +1939,37 @@
         <v>5</v>
       </c>
       <c r="AD12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE12" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AF12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG12" t="n">
         <v>0</v>
       </c>
       <c r="AH12" t="n">
-        <v>109584413.6418612</v>
+        <v>98043050.03325048</v>
       </c>
       <c r="AI12" t="n">
         <v>0</v>
       </c>
       <c r="AJ12" t="n">
-        <v>5707683.734834014</v>
+        <v>2021014.855135735</v>
       </c>
       <c r="AK12" t="n">
-        <v>232462771.3085719</v>
+        <v>243672648.2874427</v>
       </c>
       <c r="AL12" t="n">
-        <v>0.000564942814269295</v>
+        <v>0.0002018763241273868</v>
       </c>
       <c r="AM12" t="n">
-        <v>660100000</v>
+        <v>575500000</v>
       </c>
       <c r="AN12" t="n">
-        <v>309.073529500299</v>
+        <v>93.53760012655331</v>
       </c>
     </row>
     <row r="13">
@@ -1998,7 +1998,7 @@
         <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>1</v>
@@ -2007,91 +2007,91 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R13" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="S13" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="T13" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X13" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="Y13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z13" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AA13" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AB13" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AC13" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AD13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE13" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AF13" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AG13" t="n">
         <v>0</v>
       </c>
       <c r="AH13" t="n">
-        <v>184966208.5761789</v>
+        <v>280213592.4252528</v>
       </c>
       <c r="AI13" t="n">
         <v>0</v>
       </c>
       <c r="AJ13" t="n">
-        <v>7145820.755356971</v>
+        <v>0</v>
       </c>
       <c r="AK13" t="n">
-        <v>87722647.49511826</v>
+        <v>90143923.54885221</v>
       </c>
       <c r="AL13" t="n">
-        <v>0.0007569388142775269</v>
+        <v>0</v>
       </c>
       <c r="AM13" t="n">
-        <v>636900000</v>
+        <v>876000000</v>
       </c>
       <c r="AN13" t="n">
-        <v>365.2536866721915</v>
+        <v>2815.889535964799</v>
       </c>
     </row>
     <row r="14">
@@ -2099,34 +2099,34 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>1</v>
@@ -2135,58 +2135,58 @@
         <v>1</v>
       </c>
       <c r="N14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V14" t="n">
+        <v>1</v>
+      </c>
+      <c r="W14" t="n">
+        <v>6</v>
+      </c>
+      <c r="X14" t="n">
         <v>9</v>
       </c>
-      <c r="W14" t="n">
-        <v>9</v>
-      </c>
-      <c r="X14" t="n">
+      <c r="Y14" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z14" t="n">
         <v>6</v>
       </c>
-      <c r="Y14" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>1</v>
-      </c>
       <c r="AA14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC14" t="n">
         <v>8</v>
       </c>
-      <c r="AB14" t="n">
-        <v>9</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>4</v>
-      </c>
       <c r="AD14" t="n">
         <v>0</v>
       </c>
       <c r="AE14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF14" t="n">
         <v>10</v>
@@ -2195,7 +2195,7 @@
         <v>0</v>
       </c>
       <c r="AH14" t="n">
-        <v>66507014.9338145</v>
+        <v>83497824.69174261</v>
       </c>
       <c r="AI14" t="n">
         <v>0</v>
@@ -2204,16 +2204,16 @@
         <v>0</v>
       </c>
       <c r="AK14" t="n">
-        <v>295580766.3732343</v>
+        <v>185448500.9550073</v>
       </c>
       <c r="AL14" t="n">
         <v>0</v>
       </c>
       <c r="AM14" t="n">
-        <v>1124300000</v>
+        <v>775400000</v>
       </c>
       <c r="AN14" t="n">
-        <v>0</v>
+        <v>531.6821600420369</v>
       </c>
     </row>
     <row r="15">
@@ -2221,7 +2221,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
@@ -2233,7 +2233,7 @@
         <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -2245,7 +2245,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>1</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -2266,76 +2266,76 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>3</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>8</v>
+      </c>
+      <c r="W15" t="n">
+        <v>7</v>
+      </c>
+      <c r="X15" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB15" t="n">
         <v>4</v>
       </c>
-      <c r="R15" t="n">
-        <v>1</v>
-      </c>
-      <c r="S15" t="n">
-        <v>2</v>
-      </c>
-      <c r="T15" t="n">
-        <v>1</v>
-      </c>
-      <c r="U15" t="n">
-        <v>4</v>
-      </c>
-      <c r="V15" t="n">
-        <v>4</v>
-      </c>
-      <c r="W15" t="n">
-        <v>1</v>
-      </c>
-      <c r="X15" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>2</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>5</v>
-      </c>
       <c r="AC15" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AD15" t="n">
         <v>6</v>
       </c>
       <c r="AE15" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AF15" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AG15" t="n">
         <v>0</v>
       </c>
       <c r="AH15" t="n">
-        <v>107385518.6904647</v>
+        <v>89068254.21950817</v>
       </c>
       <c r="AI15" t="n">
         <v>0</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0</v>
+        <v>13061163.11233146</v>
       </c>
       <c r="AK15" t="n">
-        <v>164432458.8545359</v>
+        <v>177202865.0167742</v>
       </c>
       <c r="AL15" t="n">
-        <v>0</v>
+        <v>0.003813407769766033</v>
       </c>
       <c r="AM15" t="n">
-        <v>908600000</v>
+        <v>831600000</v>
       </c>
       <c r="AN15" t="n">
-        <v>0</v>
+        <v>295.4551595916026</v>
       </c>
     </row>
     <row r="16">
@@ -2343,7 +2343,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>1</v>
@@ -2352,7 +2352,7 @@
         <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
         <v>1</v>
@@ -2367,13 +2367,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -2382,82 +2382,326 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S16" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>7</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB16" t="n">
         <v>10</v>
       </c>
-      <c r="U16" t="n">
-        <v>2</v>
-      </c>
-      <c r="V16" t="n">
-        <v>3</v>
-      </c>
-      <c r="W16" t="n">
-        <v>1</v>
-      </c>
-      <c r="X16" t="n">
+      <c r="AC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>120872818.048313</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>12958542.35406371</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>73315450.27094865</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>0.01042865013613025</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>1005200000</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="n">
         <v>7</v>
       </c>
-      <c r="Y16" t="n">
+      <c r="U17" t="n">
+        <v>7</v>
+      </c>
+      <c r="V17" t="n">
+        <v>6</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>134576627.3967108</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>156873190.6212348</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>808400000</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>3</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1</v>
+      </c>
+      <c r="S18" t="n">
+        <v>8</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" t="n">
+        <v>3</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y18" t="n">
         <v>4</v>
       </c>
-      <c r="Z16" t="n">
+      <c r="Z18" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB18" t="n">
         <v>8</v>
       </c>
-      <c r="AA16" t="n">
-        <v>3</v>
-      </c>
-      <c r="AB16" t="n">
+      <c r="AC18" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF18" t="n">
         <v>8</v>
       </c>
-      <c r="AC16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>147485483.7636217</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>2326724.635870563</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>139228185.5331078</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>0.001947967567347669</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>1353500000</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>0</v>
+      <c r="AG18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>155840742.1501414</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>13061163.11233146</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>47842699.56310011</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>0.001271135923255344</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>1134000000</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>1003.374783414274</v>
       </c>
     </row>
   </sheetData>
